--- a/Sukses6/evaluation_results.xlsx
+++ b/Sukses6/evaluation_results.xlsx
@@ -487,17 +487,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Matius 1:24:-Matius 2:3:|Yohanes 3:2:-Yohanes 3:7:|Matius 2:4:-Matius 2:6:|Lukas 2:11:-Lukas 2:11:</t>
+          <t>Matius 1:24: - Matius 2:3:|Markus 6:1: - Markus 6:2:|Yohanes 3:2: - Yohanes 3:7:|Lukas 2:11: - Lukas 2:11:</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -516,17 +516,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kejadian 1:1:-Kejadian 1:2:|Kejadian 2:4:-Kejadian 2:9:|Amsal 8:22:-Amsal 8:29:|Ayub 38:33:-Ayub 38:33:</t>
+          <t>Kejadian 1:1: - Kejadian 1:2:|Kejadian 2:4: - Kejadian 2:9:|Ayub 38:33: - Ayub 38:33:|Amsal 8:22: - Amsal 8:29:</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -545,17 +545,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kejadian 9:18:-Kejadian 9:20:|Lukas 3:24:-Lukas 3:38:|Kejadian 36:17:-Kejadian 36:25:|Kejadian 46:10:-Kejadian 46:18:</t>
+          <t>Kejadian 9:18: - Kejadian 9:20:|1Tawarikh 8:31: - 1Tawarikh 8:31:|Lukas 3:24: - Lukas 3:38:|1Tawarikh 23:11: - 1Tawarikh 23:19:</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -574,17 +574,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Yohanes 19:17:-Yohanes 19:22:|Lukas 23:20:-Lukas 23:25:|Yohanes 19:14:-Yohanes 19:16:|Markus 15:3:-Markus 15:5:</t>
+          <t>Yohanes 19:17: - Yohanes 19:22:|Lukas 23:20: - Lukas 23:25:|Yohanes 19:14: - Yohanes 19:16:|Markus 15:3: - Markus 15:5:</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -603,17 +603,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kejadian 1:1:-Kejadian 1:2:|Kejadian 2:4:-Kejadian 2:9:|Amsal 8:22:-Amsal 8:29:|Ayub 38:33:-Ayub 38:33:</t>
+          <t>Kejadian 1:1: - Kejadian 1:2:|Kejadian 2:4: - Kejadian 2:9:|Ayub 38:33: - Ayub 38:33:|Amsal 8:22: - Amsal 8:29:</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -632,17 +632,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ayub 38:33:-Ayub 38:33:|Markus 12:31:-Markus 12:32:|Matius 22:38:-Matius 22:40:|Galatia 4:21:-Galatia 4:21:</t>
+          <t>Ayub 38:33: - Ayub 38:33:|Markus 12:31: - Markus 12:32:|Matius 22:38: - Matius 22:40:|Galatia 4:21: - Galatia 4:21:</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -661,17 +661,17 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Efesus 5:10:-Efesus 5:10:|Ratapan 3:24:-Ratapan 3:26:|Yesaya 38:7:-Yesaya 38:7:|Yeremia 17:7:-Yeremia 17:7:</t>
+          <t>Efesus 5:10: - Efesus 5:10:|1Tawarikh 17:26: - 1Tawarikh 17:27:|Yeremia 17:7: - Yeremia 17:7:|Lukas 7:19: - Lukas 7:20:</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -690,17 +690,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Yohanes 15:10:-Yohanes 15:15:|Mazmur 36:6:-Mazmur 36:8:|Mazmur 89:2:-Mazmur 89:3:|Kolose 3:12:-Kolose 3:16:</t>
+          <t>1Korintus 13:1: - 1Korintus 13:6:|1Korintus 13:13: - 1Korintus 14:1:|Yohanes 15:10: - Yohanes 15:15:|Yohanes 4:9: - Yohanes 4:13:</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -719,17 +719,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kejadian 1:23:-Kejadian 1:23:|Lukas 18:33:-Lukas 18:33:|Markus 15:42:-Markus 15:42:|Lukas 23:54:-Lukas 23:54:</t>
+          <t>Kejadian 1:23: - Kejadian 1:23:|Lukas 18:33: - Lukas 18:33:|Markus 15:42: - Markus 15:42:|Lukas 23:54: - Lukas 23:54:</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -748,17 +748,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Yohanes 3:31:-Yohanes 3:31:|Ayub 34:13:-Ayub 34:13:|Mazmur 102:20:-Mazmur 102:20:|Ratapan 3:50:-Ratapan 3:50:</t>
+          <t>Ayub 34:13: - Ayub 34:13:|Yohanes 3:31: - Yohanes 3:31:|Mazmur 102:20: - Mazmur 102:20:|Mikha 1:2: - Mikha 1:4:</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -777,17 +777,17 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ayub 21:4:-Ayub 21:4:|Mazmur 90:12:-Mazmur 90:12:|Ayub 15:12:-Ayub 15:13:|Amsal 13:19:-Amsal 13:19:</t>
+          <t>Ayub 21:4: - Ayub 21:4:|1Samuel 6:6: - 1Samuel 6:6:|Mazmur 90:12: - Mazmur 90:12:|Ayub 15:12: - Ayub 15:13:</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -806,17 +806,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yohanes 8:9:-Yohanes 8:13:|Yohanes 12:44:-Yohanes 12:49:|Markus 9:16:-Markus 9:16:|Yohanes 14:22:-Yohanes 14:22:</t>
+          <t>Yohanes 8:9: - Yohanes 8:13:|Yohanes 12:44: - Yohanes 12:49:|Markus 9:16: - Markus 9:16:|Yohanes 14:22: - Yohanes 14:22:</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -835,17 +835,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Matius 7:1:-Matius 7:2:|Ayub 24:1:-Ayub 24:1:|Yohanes 7:24:-Yohanes 7:24:|Ayub 21:4:-Ayub 21:4:</t>
+          <t>Matius 7:1: - Matius 7:2:|Ayub 24:1: - Ayub 24:1:|1Korintus 5:12: - 1Korintus 6:4:|Yohanes 7:24: - Yohanes 7:24:</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -864,17 +864,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Yohanes 6:49:-Yohanes 6:55:|Yohanes 6:26:-Yohanes 6:30:|Yohanes 6:31:-Yohanes 6:38:|Matius 4:1:-Matius 4:4:</t>
+          <t>Yohanes 6:49: - Yohanes 6:55:|Yohanes 6:26: - Yohanes 6:30:|Yohanes 6:31: - Yohanes 6:38:|Matius 4:1: - Matius 4:4:</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -893,17 +893,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Kejadian 18:16:-Kejadian 18:19:|Kejadian 21:12:-Kejadian 21:13:|Kejadian 17:4:-Kejadian 17:9:|Kejadian 12:1:-Kejadian 12:1:</t>
+          <t>Kejadian 18:16: - Kejadian 18:19:|Kejadian 17:4: - Kejadian 17:9:|Kejadian 12:1: - Kejadian 12:1:|Kejadian 28:13: - Kejadian 28:15:</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -922,17 +922,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bilangan 23:8:-Bilangan 23:8:|Ulangan 28:15:-Ulangan 28:15:|Yeremia 42:20:-Yeremia 42:21:|Ulangan 18:18:-Ulangan 18:22:</t>
+          <t>Bilangan 23:8: - Bilangan 23:8:|Lukas 6:46: - Lukas 6:47:|Ulangan 28:15: - Ulangan 28:15:|Yeremia 42:20: - Yeremia 42:21:</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -951,17 +951,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mazmur 144:3:-Mazmur 144:3:|Efesus 5:10:-Efesus 5:10:|Amsal 20:24:-Amsal 20:25:|Ratapan 3:36:-Ratapan 3:37:</t>
+          <t>Mazmur 144:3: - Mazmur 144:3:|Efesus 5:10: - Efesus 5:10:|Amsal 20:24: - Amsal 20:25:|Ratapan 3:36: - Ratapan 3:37:</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -980,7 +980,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ayub 4:6:-Ayub 4:6:|Mazmur 56:12:-Mazmur 56:12:|Matius 6:31:-Matius 6:31:|Mazmur 119:113:-Mazmur 119:120:</t>
+          <t>Ayub 4:6: - Ayub 4:6:|Ayub 13:11: - Ayub 13:11:|Mazmur 56:12: - Mazmur 56:12:|Matius 6:31: - Matius 6:31:</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Markus 3:19:-Markus 3:19:|Lukas 22:3:-Lukas 22:4:|Yohanes 12:4:-Yohanes 12:4:|Markus 14:10:-Markus 14:14:</t>
+          <t>Markus 3:19: - Markus 3:19:|Lukas 22:3: - Lukas 22:4:|Yohanes 12:4: - Yohanes 12:4:|Markus 14:10: - Markus 14:14:</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1038,17 +1038,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Galatia 5:22:-Galatia 5:22:|Filipi 4:23:-Filipi 4:23:|Galatia 3:3:-Galatia 3:4:|Markus 9:22:-Markus 9:22:</t>
+          <t>Galatia 5:22: - Galatia 5:22:|Filipi 4:23: - Filipi 4:23:|2Timotius 4:22: - 2Timotius 4:22:|1Korintus 12:30: - 1Korintus 12:30:</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.4750</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.9000</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.8250</t>
+          <t>0.0000</t>
         </is>
       </c>
     </row>
